--- a/Attendance (6).xlsx
+++ b/Attendance (6).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SNKIM\Desktop\Kim_ASTU\thirdSemester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB8612A-8F62-44C1-93A4-E417C9DEE597}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4041649-ADEB-4809-9D80-1EADF607D44D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2532" yWindow="972" windowWidth="19332" windowHeight="10332" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>Mar.17</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>Apr.07</t>
+  </si>
+  <si>
+    <t>Apr.10</t>
+  </si>
+  <si>
+    <t>Apr.14</t>
   </si>
 </sst>
 </file>
@@ -577,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J22"/>
+  <dimension ref="B2:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,7 +595,7 @@
     <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
         <v>0</v>
       </c>
@@ -608,8 +614,14 @@
       <c r="J2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -621,7 +633,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
@@ -632,7 +644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3</v>
       </c>
@@ -645,7 +657,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>4</v>
       </c>
@@ -659,7 +671,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>5</v>
       </c>
@@ -672,7 +684,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>6</v>
       </c>
@@ -685,7 +697,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>7</v>
       </c>
@@ -699,7 +711,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>8</v>
       </c>
@@ -712,7 +724,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>9</v>
       </c>
@@ -726,7 +738,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>10</v>
       </c>
@@ -740,7 +752,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>11</v>
       </c>
@@ -754,7 +766,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>12</v>
       </c>
@@ -765,7 +777,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>13</v>
       </c>
@@ -779,7 +791,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>14</v>
       </c>
@@ -792,7 +804,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>15</v>
       </c>
@@ -803,7 +815,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>16</v>
       </c>
@@ -817,7 +829,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>17</v>
       </c>
@@ -830,7 +842,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>18</v>
       </c>
@@ -844,7 +856,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>19</v>
       </c>
@@ -857,7 +869,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E22" s="2" t="s">
         <v>42</v>
       </c>
@@ -874,6 +886,9 @@
         <v>45</v>
       </c>
       <c r="J22" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" t="s">
         <v>45</v>
       </c>
     </row>
